--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -745,8 +745,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>(USCDI) clinically relevant time-period for the average of blood pressure (BP) readings</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6515" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6514" uniqueCount="673">
   <si>
     <t>Property</t>
   </si>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>The specimen condition can be used to assess its quality or appropriateness for a specific test.</t>
-  </si>
-  <si>
-    <t>Codes describing the state of the specimen.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
@@ -2064,6 +2061,9 @@
   </si>
   <si>
     <t>Categorical assessment of a laboratory value, often in relation to a test's reference range. Examples include but are not limited to high, low, critical, and normal.</t>
+  </si>
+  <si>
+    <t>Observation Interpretation Codes</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
@@ -2455,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
@@ -2471,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
@@ -2479,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
@@ -2503,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
@@ -2527,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
@@ -2563,7 +2563,7 @@
         <v>30</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
@@ -2571,7 +2571,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39">
@@ -2603,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43">
@@ -2611,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44">
@@ -2627,7 +2627,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46">
@@ -2635,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47">
@@ -2659,7 +2659,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50">
@@ -2683,7 +2683,7 @@
         <v>22</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53">
@@ -2719,7 +2719,7 @@
         <v>30</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58">
@@ -2727,7 +2727,7 @@
         <v>32</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="59">
@@ -7654,11 +7654,9 @@
       <c r="Y47" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z47" t="s" s="2">
+      <c r="Z47" s="2"/>
+      <c r="AA47" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AB47" t="s" s="2">
         <v>37</v>
@@ -7696,10 +7694,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7722,13 +7720,13 @@
         <v>37</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7779,7 +7777,7 @@
         <v>37</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>38</v>
@@ -7796,17 +7794,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
@@ -7828,7 +7826,7 @@
         <v>40</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>42</v>
@@ -7884,7 +7882,7 @@
         <v>37</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>38</v>
@@ -7901,13 +7899,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -8006,13 +8004,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -8109,13 +8107,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8214,13 +8212,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8319,13 +8317,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8424,13 +8422,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8529,13 +8527,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8634,13 +8632,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8675,7 +8673,7 @@
         <v>91</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>37</v>
@@ -8741,13 +8739,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8773,14 +8771,14 @@
         <v>100</v>
       </c>
       <c r="M58" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>37</v>
@@ -8829,7 +8827,7 @@
         <v>37</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>38</v>
@@ -8846,17 +8844,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
@@ -8875,17 +8873,17 @@
         <v>45</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>37</v>
@@ -8934,7 +8932,7 @@
         <v>37</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>38</v>
@@ -8951,17 +8949,17 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
@@ -8980,16 +8978,16 @@
         <v>45</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -9039,7 +9037,7 @@
         <v>37</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>38</v>
@@ -9056,13 +9054,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9088,16 +9086,16 @@
         <v>64</v>
       </c>
       <c r="M61" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>109</v>
       </c>
       <c r="P61" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q61" t="s" s="2">
         <v>37</v>
@@ -9126,7 +9124,7 @@
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB61" t="s" s="2">
         <v>37</v>
@@ -9144,7 +9142,7 @@
         <v>37</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
@@ -9161,13 +9159,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9193,16 +9191,16 @@
         <v>114</v>
       </c>
       <c r="M62" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="O62" t="s" s="2">
+      <c r="P62" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="Q62" t="s" s="2">
         <v>37</v>
@@ -9230,26 +9228,26 @@
         <v>68</v>
       </c>
       <c r="Z62" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AA62" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AA62" t="s" s="2">
+      <c r="AB62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC62" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>38</v>
@@ -9266,16 +9264,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="D63" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="E63" t="s" s="2">
         <v>37</v>
@@ -9300,16 +9298,16 @@
         <v>114</v>
       </c>
       <c r="M63" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="O63" t="s" s="2">
+      <c r="P63" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="Q63" t="s" s="2">
         <v>37</v>
@@ -9337,11 +9335,11 @@
         <v>68</v>
       </c>
       <c r="Z63" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AA63" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AA63" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AB63" t="s" s="2">
         <v>37</v>
       </c>
@@ -9358,7 +9356,7 @@
         <v>37</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>38</v>
@@ -9375,13 +9373,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9478,13 +9476,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B65" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9554,16 +9552,16 @@
         <v>37</v>
       </c>
       <c r="AC65" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AD65" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AD65" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="AE65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>150</v>
@@ -9583,13 +9581,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9612,19 +9610,19 @@
         <v>45</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="O66" t="s" s="2">
+      <c r="P66" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>37</v>
@@ -9673,7 +9671,7 @@
         <v>37</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>38</v>
@@ -9690,13 +9688,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9793,13 +9791,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9869,16 +9867,16 @@
         <v>37</v>
       </c>
       <c r="AC68" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AD68" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AD68" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="AE68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>150</v>
@@ -9898,13 +9896,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9930,65 +9928,65 @@
         <v>58</v>
       </c>
       <c r="M69" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="O69" t="s" s="2">
+      <c r="P69" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R69" s="2"/>
       <c r="S69" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG69" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>38</v>
@@ -10005,13 +10003,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B70" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C70" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10037,13 +10035,13 @@
         <v>144</v>
       </c>
       <c r="M70" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -10093,7 +10091,7 @@
         <v>37</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>38</v>
@@ -10110,13 +10108,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B71" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C71" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10142,63 +10140,63 @@
         <v>64</v>
       </c>
       <c r="M71" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R71" s="2"/>
       <c r="S71" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG71" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>38</v>
@@ -10215,13 +10213,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B72" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10247,14 +10245,14 @@
         <v>144</v>
       </c>
       <c r="M72" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q72" t="s" s="2">
         <v>37</v>
@@ -10303,7 +10301,7 @@
         <v>37</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>38</v>
@@ -10320,13 +10318,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B73" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10349,19 +10347,19 @@
         <v>45</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="O73" t="s" s="2">
+      <c r="P73" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="Q73" t="s" s="2">
         <v>37</v>
@@ -10410,7 +10408,7 @@
         <v>37</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>38</v>
@@ -10427,13 +10425,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10459,16 +10457,16 @@
         <v>144</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="O74" t="s" s="2">
+      <c r="P74" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="Q74" t="s" s="2">
         <v>37</v>
@@ -10517,7 +10515,7 @@
         <v>37</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>38</v>
@@ -10534,17 +10532,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -10566,16 +10564,16 @@
         <v>114</v>
       </c>
       <c r="M75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="O75" t="s" s="2">
+      <c r="P75" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>37</v>
@@ -10585,7 +10583,7 @@
         <v>37</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>37</v>
@@ -10603,11 +10601,11 @@
         <v>118</v>
       </c>
       <c r="Z75" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AA75" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AA75" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AB75" t="s" s="2">
         <v>37</v>
       </c>
@@ -10624,7 +10622,7 @@
         <v>37</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
@@ -10641,13 +10639,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10673,16 +10671,16 @@
         <v>121</v>
       </c>
       <c r="M76" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="O76" t="s" s="2">
+      <c r="P76" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="Q76" t="s" s="2">
         <v>37</v>
@@ -10731,7 +10729,7 @@
         <v>37</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>38</v>
@@ -10748,13 +10746,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10777,16 +10775,16 @@
         <v>45</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10836,7 +10834,7 @@
         <v>37</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>38</v>
@@ -10853,17 +10851,17 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
@@ -10882,19 +10880,19 @@
         <v>45</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="O78" t="s" s="2">
+      <c r="P78" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>37</v>
@@ -10943,7 +10941,7 @@
         <v>37</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>38</v>
@@ -10960,17 +10958,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" t="s" s="2">
@@ -10989,19 +10987,19 @@
         <v>45</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="O79" t="s" s="2">
+      <c r="P79" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="Q79" t="s" s="2">
         <v>37</v>
@@ -11050,7 +11048,7 @@
         <v>37</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>38</v>
@@ -11059,21 +11057,21 @@
         <v>44</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11096,16 +11094,16 @@
         <v>45</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -11155,7 +11153,7 @@
         <v>37</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>38</v>
@@ -11172,13 +11170,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11201,17 +11199,17 @@
         <v>45</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>37</v>
@@ -11260,7 +11258,7 @@
         <v>37</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>38</v>
@@ -11277,13 +11275,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11306,19 +11304,19 @@
         <v>45</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="O82" t="s" s="2">
+      <c r="P82" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="Q82" t="s" s="2">
         <v>37</v>
@@ -11346,37 +11344,37 @@
         <v>118</v>
       </c>
       <c r="Z82" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AA82" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AA82" t="s" s="2">
+      <c r="AB82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>56</v>
@@ -11384,13 +11382,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11416,16 +11414,16 @@
         <v>114</v>
       </c>
       <c r="M83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="O83" t="s" s="2">
+      <c r="P83" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="Q83" t="s" s="2">
         <v>37</v>
@@ -11453,37 +11451,37 @@
         <v>118</v>
       </c>
       <c r="Z83" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AA83" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AA83" t="s" s="2">
+      <c r="AB83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>56</v>
@@ -11491,17 +11489,17 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
@@ -11523,16 +11521,16 @@
         <v>114</v>
       </c>
       <c r="M84" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="O84" t="s" s="2">
+      <c r="P84" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="Q84" t="s" s="2">
         <v>37</v>
@@ -11560,11 +11558,11 @@
         <v>118</v>
       </c>
       <c r="Z84" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AA84" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AA84" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AB84" t="s" s="2">
         <v>37</v>
       </c>
@@ -11581,7 +11579,7 @@
         <v>37</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>38</v>
@@ -11598,13 +11596,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11627,19 +11625,19 @@
         <v>37</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="O85" t="s" s="2">
+      <c r="P85" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>37</v>
@@ -11688,7 +11686,7 @@
         <v>37</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>38</v>
@@ -11705,13 +11703,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11737,13 +11735,13 @@
         <v>114</v>
       </c>
       <c r="M86" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11772,7 +11770,7 @@
         <v>175</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>182</v>
@@ -11793,7 +11791,7 @@
         <v>37</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>38</v>
@@ -11810,13 +11808,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11842,16 +11840,16 @@
         <v>114</v>
       </c>
       <c r="M87" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="O87" t="s" s="2">
+      <c r="P87" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>37</v>
@@ -11879,11 +11877,11 @@
         <v>175</v>
       </c>
       <c r="Z87" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AA87" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AA87" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AB87" t="s" s="2">
         <v>37</v>
       </c>
@@ -11900,7 +11898,7 @@
         <v>37</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>38</v>
@@ -11917,13 +11915,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11949,13 +11947,13 @@
         <v>130</v>
       </c>
       <c r="M88" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -12005,7 +12003,7 @@
         <v>37</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>38</v>
@@ -12022,13 +12020,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12051,16 +12049,16 @@
         <v>37</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -12110,7 +12108,7 @@
         <v>37</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>38</v>
@@ -12127,13 +12125,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12159,16 +12157,16 @@
         <v>140</v>
       </c>
       <c r="M90" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="O90" t="s" s="2">
+      <c r="P90" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="Q90" t="s" s="2">
         <v>37</v>
@@ -12217,7 +12215,7 @@
         <v>37</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>38</v>
@@ -12229,18 +12227,18 @@
         <v>37</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12337,13 +12335,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12442,13 +12440,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12483,7 +12481,7 @@
         <v>91</v>
       </c>
       <c r="P93" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q93" t="s" s="2">
         <v>37</v>
@@ -12549,13 +12547,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12581,10 +12579,10 @@
         <v>169</v>
       </c>
       <c r="M94" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -12635,7 +12633,7 @@
         <v>37</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>38</v>
@@ -12644,7 +12642,7 @@
         <v>44</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>56</v>
@@ -12652,13 +12650,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12684,10 +12682,10 @@
         <v>169</v>
       </c>
       <c r="M95" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -12738,7 +12736,7 @@
         <v>37</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>38</v>
@@ -12747,7 +12745,7 @@
         <v>44</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>56</v>
@@ -12755,13 +12753,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12787,16 +12785,16 @@
         <v>114</v>
       </c>
       <c r="M96" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="O96" t="s" s="2">
+      <c r="P96" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>37</v>
@@ -12824,11 +12822,11 @@
         <v>68</v>
       </c>
       <c r="Z96" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AA96" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AA96" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AB96" t="s" s="2">
         <v>37</v>
       </c>
@@ -12845,7 +12843,7 @@
         <v>37</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>38</v>
@@ -12862,13 +12860,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12894,16 +12892,16 @@
         <v>114</v>
       </c>
       <c r="M97" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="O97" t="s" s="2">
+      <c r="P97" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="Q97" t="s" s="2">
         <v>37</v>
@@ -12931,11 +12929,11 @@
         <v>175</v>
       </c>
       <c r="Z97" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA97" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AA97" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="AB97" t="s" s="2">
         <v>37</v>
       </c>
@@ -12952,7 +12950,7 @@
         <v>37</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>38</v>
@@ -12969,13 +12967,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12998,17 +12996,17 @@
         <v>37</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q98" t="s" s="2">
         <v>37</v>
@@ -13057,7 +13055,7 @@
         <v>37</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>38</v>
@@ -13074,13 +13072,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13106,10 +13104,10 @@
         <v>144</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -13160,7 +13158,7 @@
         <v>37</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>38</v>
@@ -13177,13 +13175,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13206,16 +13204,16 @@
         <v>45</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -13265,7 +13263,7 @@
         <v>37</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>38</v>
@@ -13282,13 +13280,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13311,16 +13309,16 @@
         <v>45</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -13370,7 +13368,7 @@
         <v>37</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>38</v>
@@ -13387,13 +13385,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13401,7 +13399,7 @@
       </c>
       <c r="F102" s="2"/>
       <c r="G102" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>39</v>
@@ -13419,16 +13417,16 @@
         <v>140</v>
       </c>
       <c r="M102" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="O102" t="s" s="2">
+      <c r="P102" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="Q102" t="s" s="2">
         <v>37</v>
@@ -13465,17 +13463,17 @@
         <v>37</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AD102" s="2"/>
       <c r="AE102" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>38</v>
@@ -13487,18 +13485,18 @@
         <v>37</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13595,13 +13593,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13700,13 +13698,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13741,7 +13739,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q105" t="s" s="2">
         <v>37</v>
@@ -13807,13 +13805,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13839,16 +13837,16 @@
         <v>114</v>
       </c>
       <c r="M106" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="O106" t="s" s="2">
+      <c r="P106" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="Q106" t="s" s="2">
         <v>37</v>
@@ -13876,11 +13874,11 @@
         <v>118</v>
       </c>
       <c r="Z106" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AA106" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AA106" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AB106" t="s" s="2">
         <v>37</v>
       </c>
@@ -13897,7 +13895,7 @@
         <v>37</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>44</v>
@@ -13914,13 +13912,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13943,19 +13941,19 @@
         <v>45</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M107" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="O107" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="P107" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q107" t="s" s="2">
         <v>37</v>
@@ -13983,11 +13981,11 @@
         <v>118</v>
       </c>
       <c r="Z107" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AA107" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AA107" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AB107" t="s" s="2">
         <v>37</v>
       </c>
@@ -14004,7 +14002,7 @@
         <v>37</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>38</v>
@@ -14013,7 +14011,7 @@
         <v>44</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>56</v>
@@ -14021,13 +14019,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14053,16 +14051,16 @@
         <v>114</v>
       </c>
       <c r="M108" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="O108" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="P108" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q108" t="s" s="2">
         <v>37</v>
@@ -14090,11 +14088,11 @@
         <v>118</v>
       </c>
       <c r="Z108" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AA108" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AA108" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AB108" t="s" s="2">
         <v>37</v>
       </c>
@@ -14111,7 +14109,7 @@
         <v>37</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>38</v>
@@ -14120,7 +14118,7 @@
         <v>44</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>56</v>
@@ -14128,17 +14126,17 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" t="s" s="2">
@@ -14160,16 +14158,16 @@
         <v>114</v>
       </c>
       <c r="M109" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="O109" t="s" s="2">
+      <c r="P109" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="Q109" t="s" s="2">
         <v>37</v>
@@ -14197,11 +14195,11 @@
         <v>118</v>
       </c>
       <c r="Z109" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AA109" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AA109" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AB109" t="s" s="2">
         <v>37</v>
       </c>
@@ -14218,7 +14216,7 @@
         <v>37</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>38</v>
@@ -14235,13 +14233,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14267,16 +14265,16 @@
         <v>40</v>
       </c>
       <c r="M110" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N110" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="O110" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P110" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="Q110" t="s" s="2">
         <v>37</v>
@@ -14325,7 +14323,7 @@
         <v>37</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>38</v>
@@ -14342,16 +14340,16 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B111" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="D111" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="D111" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="E111" t="s" s="2">
         <v>37</v>
@@ -14376,16 +14374,16 @@
         <v>140</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N111" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O111" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="O111" t="s" s="2">
+      <c r="P111" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="Q111" t="s" s="2">
         <v>37</v>
@@ -14434,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>38</v>
@@ -14446,18 +14444,18 @@
         <v>37</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14554,13 +14552,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14659,13 +14657,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14700,7 +14698,7 @@
         <v>91</v>
       </c>
       <c r="P114" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q114" t="s" s="2">
         <v>37</v>
@@ -14766,13 +14764,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14798,16 +14796,16 @@
         <v>114</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N115" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O115" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="O115" t="s" s="2">
+      <c r="P115" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="P115" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="Q115" t="s" s="2">
         <v>37</v>
@@ -14817,7 +14815,7 @@
         <v>37</v>
       </c>
       <c r="T115" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U115" t="s" s="2">
         <v>37</v>
@@ -14835,11 +14833,11 @@
         <v>118</v>
       </c>
       <c r="Z115" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AA115" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AA115" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AB115" t="s" s="2">
         <v>37</v>
       </c>
@@ -14856,7 +14854,7 @@
         <v>37</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>44</v>
@@ -14873,13 +14871,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14902,19 +14900,19 @@
         <v>45</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M116" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N116" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="O116" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="P116" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>37</v>
@@ -14942,11 +14940,11 @@
         <v>118</v>
       </c>
       <c r="Z116" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AA116" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AA116" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AB116" t="s" s="2">
         <v>37</v>
       </c>
@@ -14963,7 +14961,7 @@
         <v>37</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>38</v>
@@ -14972,7 +14970,7 @@
         <v>44</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>56</v>
@@ -14980,13 +14978,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B117" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C117" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15083,13 +15081,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B118" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15159,16 +15157,16 @@
         <v>37</v>
       </c>
       <c r="AC118" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AD118" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AD118" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="AE118" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>150</v>
@@ -15188,13 +15186,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B119" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15217,19 +15215,19 @@
         <v>45</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="N119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="O119" t="s" s="2">
+      <c r="P119" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="Q119" t="s" s="2">
         <v>37</v>
@@ -15278,7 +15276,7 @@
         <v>37</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>38</v>
@@ -15295,13 +15293,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C120" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15327,20 +15325,20 @@
         <v>64</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Q120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R120" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="Q120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="S120" t="s" s="2">
         <v>37</v>
@@ -15364,28 +15362,28 @@
         <v>110</v>
       </c>
       <c r="Z120" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AA120" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AA120" t="s" s="2">
+      <c r="AB120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG120" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>38</v>
@@ -15402,13 +15400,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B121" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C121" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -15434,14 +15432,14 @@
         <v>144</v>
       </c>
       <c r="M121" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>37</v>
@@ -15490,7 +15488,7 @@
         <v>37</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>38</v>
@@ -15507,13 +15505,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B122" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C122" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15539,72 +15537,72 @@
         <v>58</v>
       </c>
       <c r="M122" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q122" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R122" s="2"/>
       <c r="S122" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG122" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="T122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG122" t="s" s="2">
+      <c r="AH122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>56</v>
@@ -15612,13 +15610,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B123" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C123" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15644,65 +15642,65 @@
         <v>64</v>
       </c>
       <c r="M123" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="O123" t="s" s="2">
+      <c r="P123" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="P123" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="Q123" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R123" s="2"/>
       <c r="S123" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG123" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>38</v>
@@ -15719,13 +15717,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15751,16 +15749,16 @@
         <v>114</v>
       </c>
       <c r="M124" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="O124" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="P124" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q124" t="s" s="2">
         <v>37</v>
@@ -15788,11 +15786,11 @@
         <v>118</v>
       </c>
       <c r="Z124" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AA124" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AA124" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AB124" t="s" s="2">
         <v>37</v>
       </c>
@@ -15809,7 +15807,7 @@
         <v>37</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>38</v>
@@ -15818,7 +15816,7 @@
         <v>44</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>56</v>
@@ -15826,17 +15824,17 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
@@ -15858,16 +15856,16 @@
         <v>114</v>
       </c>
       <c r="M125" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N125" t="s" s="2">
+      <c r="O125" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="O125" t="s" s="2">
+      <c r="P125" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="Q125" t="s" s="2">
         <v>37</v>
@@ -15895,11 +15893,11 @@
         <v>118</v>
       </c>
       <c r="Z125" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AA125" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AA125" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AB125" t="s" s="2">
         <v>37</v>
       </c>
@@ -15916,7 +15914,7 @@
         <v>37</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>38</v>
@@ -15933,13 +15931,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15965,16 +15963,16 @@
         <v>40</v>
       </c>
       <c r="M126" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N126" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="O126" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P126" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="P126" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>37</v>
@@ -16023,7 +16021,7 @@
         <v>37</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>38</v>
@@ -16040,16 +16038,16 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B127" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="D127" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="D127" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="E127" t="s" s="2">
         <v>37</v>
@@ -16074,16 +16072,16 @@
         <v>140</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N127" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O127" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="O127" t="s" s="2">
+      <c r="P127" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="P127" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>37</v>
@@ -16132,7 +16130,7 @@
         <v>37</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>38</v>
@@ -16144,18 +16142,18 @@
         <v>37</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16252,13 +16250,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16357,13 +16355,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16398,7 +16396,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q130" t="s" s="2">
         <v>37</v>
@@ -16464,13 +16462,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16496,16 +16494,16 @@
         <v>114</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N131" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O131" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="O131" t="s" s="2">
+      <c r="P131" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="P131" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>37</v>
@@ -16515,7 +16513,7 @@
         <v>37</v>
       </c>
       <c r="T131" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U131" t="s" s="2">
         <v>37</v>
@@ -16533,11 +16531,11 @@
         <v>118</v>
       </c>
       <c r="Z131" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AA131" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AA131" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AB131" t="s" s="2">
         <v>37</v>
       </c>
@@ -16554,7 +16552,7 @@
         <v>37</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>44</v>
@@ -16571,13 +16569,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16600,19 +16598,19 @@
         <v>45</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M132" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="O132" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="P132" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>37</v>
@@ -16640,11 +16638,11 @@
         <v>118</v>
       </c>
       <c r="Z132" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AA132" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AA132" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AB132" t="s" s="2">
         <v>37</v>
       </c>
@@ -16661,7 +16659,7 @@
         <v>37</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>38</v>
@@ -16670,7 +16668,7 @@
         <v>44</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>56</v>
@@ -16678,13 +16676,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16781,13 +16779,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16857,16 +16855,16 @@
         <v>37</v>
       </c>
       <c r="AC134" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AD134" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AD134" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="AE134" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>150</v>
@@ -16886,13 +16884,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16915,19 +16913,19 @@
         <v>45</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="O135" t="s" s="2">
+      <c r="P135" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="Q135" t="s" s="2">
         <v>37</v>
@@ -16976,7 +16974,7 @@
         <v>37</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>38</v>
@@ -16993,13 +16991,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17025,20 +17023,20 @@
         <v>64</v>
       </c>
       <c r="M136" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Q136" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R136" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="Q136" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>37</v>
@@ -17062,28 +17060,28 @@
         <v>110</v>
       </c>
       <c r="Z136" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AA136" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AA136" t="s" s="2">
+      <c r="AB136" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG136" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>38</v>
@@ -17100,13 +17098,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17132,14 +17130,14 @@
         <v>144</v>
       </c>
       <c r="M137" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N137" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>37</v>
@@ -17188,7 +17186,7 @@
         <v>37</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>38</v>
@@ -17205,13 +17203,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17237,72 +17235,72 @@
         <v>58</v>
       </c>
       <c r="M138" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q138" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R138" s="2"/>
       <c r="S138" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG138" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="T138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG138" t="s" s="2">
+      <c r="AH138" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>56</v>
@@ -17310,13 +17308,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -17342,65 +17340,65 @@
         <v>64</v>
       </c>
       <c r="M139" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="N139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="O139" t="s" s="2">
+      <c r="P139" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="Q139" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R139" s="2"/>
       <c r="S139" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG139" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>38</v>
@@ -17417,13 +17415,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17449,16 +17447,16 @@
         <v>114</v>
       </c>
       <c r="M140" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="O140" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="P140" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>37</v>
@@ -17486,11 +17484,11 @@
         <v>118</v>
       </c>
       <c r="Z140" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AA140" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AA140" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AB140" t="s" s="2">
         <v>37</v>
       </c>
@@ -17507,7 +17505,7 @@
         <v>37</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>38</v>
@@ -17516,7 +17514,7 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>56</v>
@@ -17524,17 +17522,17 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
@@ -17556,16 +17554,16 @@
         <v>114</v>
       </c>
       <c r="M141" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="O141" t="s" s="2">
+      <c r="P141" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="Q141" t="s" s="2">
         <v>37</v>
@@ -17593,11 +17591,11 @@
         <v>118</v>
       </c>
       <c r="Z141" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AA141" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AA141" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AB141" t="s" s="2">
         <v>37</v>
       </c>
@@ -17614,7 +17612,7 @@
         <v>37</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>38</v>
@@ -17631,13 +17629,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17663,16 +17661,16 @@
         <v>40</v>
       </c>
       <c r="M142" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N142" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="O142" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P142" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>37</v>
@@ -17721,7 +17719,7 @@
         <v>37</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>38</v>
@@ -17738,17 +17736,17 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
@@ -17770,7 +17768,7 @@
         <v>40</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>42</v>
@@ -17826,7 +17824,7 @@
         <v>37</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>38</v>
@@ -17843,13 +17841,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17948,13 +17946,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18051,13 +18049,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18156,13 +18154,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18261,13 +18259,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18366,13 +18364,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -18471,13 +18469,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18576,13 +18574,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -18683,13 +18681,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -18715,14 +18713,14 @@
         <v>100</v>
       </c>
       <c r="M152" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q152" t="s" s="2">
         <v>37</v>
@@ -18771,7 +18769,7 @@
         <v>37</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>38</v>
@@ -18788,17 +18786,17 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
@@ -18817,17 +18815,17 @@
         <v>45</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q153" t="s" s="2">
         <v>37</v>
@@ -18876,7 +18874,7 @@
         <v>37</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>38</v>
@@ -18893,17 +18891,17 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
@@ -18922,16 +18920,16 @@
         <v>45</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N154" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="O154" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
@@ -18981,7 +18979,7 @@
         <v>37</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>38</v>
@@ -18998,13 +18996,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19030,16 +19028,16 @@
         <v>64</v>
       </c>
       <c r="M155" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>109</v>
       </c>
       <c r="P155" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>37</v>
@@ -19067,10 +19065,10 @@
         <v>110</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA155" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB155" t="s" s="2">
         <v>37</v>
@@ -19088,7 +19086,7 @@
         <v>37</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>44</v>
@@ -19105,13 +19103,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19137,16 +19135,16 @@
         <v>114</v>
       </c>
       <c r="M156" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N156" t="s" s="2">
+      <c r="O156" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="O156" t="s" s="2">
+      <c r="P156" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="P156" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="Q156" t="s" s="2">
         <v>37</v>
@@ -19174,26 +19172,26 @@
         <v>68</v>
       </c>
       <c r="Z156" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AA156" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AA156" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AB156" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AC156" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD156" s="2"/>
       <c r="AE156" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>38</v>
@@ -19210,16 +19208,16 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B157" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="D157" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="D157" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="E157" t="s" s="2">
         <v>37</v>
@@ -19244,16 +19242,16 @@
         <v>114</v>
       </c>
       <c r="M157" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="O157" t="s" s="2">
+      <c r="P157" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="P157" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="Q157" t="s" s="2">
         <v>37</v>
@@ -19263,7 +19261,7 @@
         <v>37</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>37</v>
@@ -19281,11 +19279,11 @@
         <v>110</v>
       </c>
       <c r="Z157" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AA157" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="AA157" t="s" s="2">
-        <v>628</v>
-      </c>
       <c r="AB157" t="s" s="2">
         <v>37</v>
       </c>
@@ -19302,7 +19300,7 @@
         <v>37</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>38</v>
@@ -19319,17 +19317,17 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
@@ -19351,16 +19349,16 @@
         <v>114</v>
       </c>
       <c r="M158" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="N158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="O158" t="s" s="2">
-        <v>631</v>
-      </c>
       <c r="P158" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q158" t="s" s="2">
         <v>37</v>
@@ -19388,11 +19386,11 @@
         <v>118</v>
       </c>
       <c r="Z158" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AA158" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AA158" t="s" s="2">
-        <v>633</v>
-      </c>
       <c r="AB158" t="s" s="2">
         <v>37</v>
       </c>
@@ -19409,7 +19407,7 @@
         <v>37</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>44</v>
@@ -19426,13 +19424,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -19458,16 +19456,16 @@
         <v>121</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="N159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="O159" t="s" s="2">
+      <c r="P159" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="P159" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="Q159" t="s" s="2">
         <v>37</v>
@@ -19516,7 +19514,7 @@
         <v>37</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>38</v>
@@ -19533,13 +19531,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19562,16 +19560,16 @@
         <v>45</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="N160" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="O160" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
@@ -19621,7 +19619,7 @@
         <v>37</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>38</v>
@@ -19638,17 +19636,17 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
@@ -19667,19 +19665,19 @@
         <v>45</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N161" t="s" s="2">
+      <c r="O161" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="O161" t="s" s="2">
+      <c r="P161" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="P161" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="Q161" t="s" s="2">
         <v>37</v>
@@ -19728,7 +19726,7 @@
         <v>37</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>38</v>
@@ -19745,17 +19743,17 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
@@ -19774,19 +19772,19 @@
         <v>45</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="O162" t="s" s="2">
-        <v>638</v>
-      </c>
       <c r="P162" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q162" t="s" s="2">
         <v>37</v>
@@ -19835,7 +19833,7 @@
         <v>37</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>38</v>
@@ -19844,21 +19842,21 @@
         <v>44</v>
       </c>
       <c r="AJ162" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AK162" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>640</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -19881,16 +19879,16 @@
         <v>45</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N163" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="O163" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
@@ -19940,7 +19938,7 @@
         <v>37</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>38</v>
@@ -19957,13 +19955,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -19986,17 +19984,17 @@
         <v>45</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>37</v>
@@ -20045,7 +20043,7 @@
         <v>37</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>38</v>
@@ -20062,13 +20060,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20091,19 +20089,19 @@
         <v>45</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="O165" t="s" s="2">
+      <c r="P165" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="P165" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>37</v>
@@ -20152,7 +20150,7 @@
         <v>37</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>38</v>
@@ -20161,21 +20159,21 @@
         <v>44</v>
       </c>
       <c r="AJ165" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AK165" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>647</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20201,16 +20199,16 @@
         <v>114</v>
       </c>
       <c r="M166" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N166" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="N166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="O166" t="s" s="2">
+      <c r="P166" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="P166" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="Q166" t="s" s="2">
         <v>37</v>
@@ -20238,11 +20236,11 @@
         <v>118</v>
       </c>
       <c r="Z166" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AA166" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AA166" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AB166" t="s" s="2">
         <v>37</v>
       </c>
@@ -20259,7 +20257,7 @@
         <v>37</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>38</v>
@@ -20268,7 +20266,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>56</v>
@@ -20276,17 +20274,17 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
@@ -20308,16 +20306,16 @@
         <v>114</v>
       </c>
       <c r="M167" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O167" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="N167" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="P167" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q167" t="s" s="2">
         <v>37</v>
@@ -20345,11 +20343,11 @@
         <v>118</v>
       </c>
       <c r="Z167" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AA167" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AA167" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AB167" t="s" s="2">
         <v>37</v>
       </c>
@@ -20366,7 +20364,7 @@
         <v>37</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>38</v>
@@ -20383,13 +20381,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -20412,19 +20410,19 @@
         <v>37</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M168" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N168" t="s" s="2">
+      <c r="O168" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="O168" t="s" s="2">
+      <c r="P168" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="P168" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>37</v>
@@ -20473,7 +20471,7 @@
         <v>37</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>38</v>
@@ -20490,13 +20488,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -20522,10 +20520,10 @@
         <v>114</v>
       </c>
       <c r="M169" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N169" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>651</v>
@@ -20557,7 +20555,7 @@
         <v>175</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>182</v>
@@ -20578,7 +20576,7 @@
         <v>37</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>38</v>
@@ -20595,13 +20593,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -20627,16 +20625,16 @@
         <v>114</v>
       </c>
       <c r="M170" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N170" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="N170" t="s" s="2">
+      <c r="O170" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="O170" t="s" s="2">
+      <c r="P170" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="P170" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="Q170" t="s" s="2">
         <v>37</v>
@@ -20664,11 +20662,11 @@
         <v>175</v>
       </c>
       <c r="Z170" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AA170" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AA170" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AB170" t="s" s="2">
         <v>37</v>
       </c>
@@ -20685,7 +20683,7 @@
         <v>37</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>38</v>
@@ -20702,13 +20700,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -20737,10 +20735,10 @@
         <v>653</v>
       </c>
       <c r="N171" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O171" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
@@ -20790,7 +20788,7 @@
         <v>37</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>38</v>
@@ -20807,13 +20805,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -20836,16 +20834,16 @@
         <v>37</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
@@ -20895,7 +20893,7 @@
         <v>37</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>38</v>
@@ -20912,13 +20910,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -20947,13 +20945,13 @@
         <v>654</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>655</v>
       </c>
       <c r="P173" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q173" t="s" s="2">
         <v>37</v>
@@ -21002,7 +21000,7 @@
         <v>37</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>38</v>
@@ -21014,18 +21012,18 @@
         <v>37</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -21122,13 +21120,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -21227,13 +21225,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -21334,13 +21332,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -21366,10 +21364,10 @@
         <v>169</v>
       </c>
       <c r="M177" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N177" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -21420,7 +21418,7 @@
         <v>37</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>38</v>
@@ -21429,7 +21427,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>56</v>
@@ -21437,13 +21435,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -21469,10 +21467,10 @@
         <v>169</v>
       </c>
       <c r="M178" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N178" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -21523,7 +21521,7 @@
         <v>37</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>38</v>
@@ -21532,7 +21530,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>56</v>
@@ -21540,13 +21538,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -21572,16 +21570,16 @@
         <v>114</v>
       </c>
       <c r="M179" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N179" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="N179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="O179" t="s" s="2">
+      <c r="P179" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="P179" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="Q179" t="s" s="2">
         <v>37</v>
@@ -21609,11 +21607,11 @@
         <v>68</v>
       </c>
       <c r="Z179" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AA179" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AA179" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AB179" t="s" s="2">
         <v>37</v>
       </c>
@@ -21630,7 +21628,7 @@
         <v>37</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>38</v>
@@ -21647,13 +21645,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -21679,16 +21677,16 @@
         <v>114</v>
       </c>
       <c r="M180" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N180" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="N180" t="s" s="2">
+      <c r="O180" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="O180" t="s" s="2">
+      <c r="P180" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="P180" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="Q180" t="s" s="2">
         <v>37</v>
@@ -21716,11 +21714,11 @@
         <v>175</v>
       </c>
       <c r="Z180" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA180" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AA180" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="AB180" t="s" s="2">
         <v>37</v>
       </c>
@@ -21737,7 +21735,7 @@
         <v>37</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>38</v>
@@ -21754,13 +21752,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -21783,17 +21781,17 @@
         <v>37</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q181" t="s" s="2">
         <v>37</v>
@@ -21842,7 +21840,7 @@
         <v>37</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>38</v>
@@ -21859,13 +21857,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -21891,10 +21889,10 @@
         <v>144</v>
       </c>
       <c r="M182" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N182" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -21945,7 +21943,7 @@
         <v>37</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>38</v>
@@ -21962,13 +21960,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22050,7 +22048,7 @@
         <v>37</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>38</v>
@@ -22067,13 +22065,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -22099,10 +22097,10 @@
         <v>660</v>
       </c>
       <c r="M184" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N184" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>661</v>
@@ -22155,7 +22153,7 @@
         <v>37</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>38</v>
@@ -22172,13 +22170,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -22213,7 +22211,7 @@
         <v>664</v>
       </c>
       <c r="P185" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q185" t="s" s="2">
         <v>37</v>
@@ -22262,7 +22260,7 @@
         <v>37</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>38</v>
@@ -22279,13 +22277,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -22382,13 +22380,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -22487,13 +22485,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -22594,13 +22592,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -22629,13 +22627,13 @@
         <v>665</v>
       </c>
       <c r="N189" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O189" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="O189" t="s" s="2">
+      <c r="P189" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="P189" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="Q189" t="s" s="2">
         <v>37</v>
@@ -22684,7 +22682,7 @@
         <v>37</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>44</v>
@@ -22701,13 +22699,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -22730,7 +22728,7 @@
         <v>45</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M190" t="s" s="2">
         <v>668</v>
@@ -22742,7 +22740,7 @@
         <v>670</v>
       </c>
       <c r="P190" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q190" t="s" s="2">
         <v>37</v>
@@ -22791,7 +22789,7 @@
         <v>37</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>38</v>
@@ -22808,13 +22806,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -22843,13 +22841,13 @@
         <v>671</v>
       </c>
       <c r="N191" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O191" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="O191" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="P191" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q191" t="s" s="2">
         <v>37</v>
@@ -22877,11 +22875,11 @@
         <v>118</v>
       </c>
       <c r="Z191" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AA191" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AA191" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AB191" t="s" s="2">
         <v>37</v>
       </c>
@@ -22898,7 +22896,7 @@
         <v>37</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>38</v>
@@ -22915,17 +22913,17 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" t="s" s="2">
@@ -22947,16 +22945,16 @@
         <v>114</v>
       </c>
       <c r="M192" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N192" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N192" t="s" s="2">
+      <c r="O192" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="O192" t="s" s="2">
+      <c r="P192" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="P192" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="Q192" t="s" s="2">
         <v>37</v>
@@ -22984,11 +22982,11 @@
         <v>118</v>
       </c>
       <c r="Z192" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AA192" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AA192" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AB192" t="s" s="2">
         <v>37</v>
       </c>
@@ -23005,7 +23003,7 @@
         <v>37</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>38</v>
@@ -23022,13 +23020,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -23054,16 +23052,16 @@
         <v>40</v>
       </c>
       <c r="M193" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N193" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N193" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="O193" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P193" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="P193" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="Q193" t="s" s="2">
         <v>37</v>
@@ -23112,7 +23110,7 @@
         <v>37</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>38</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6514" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8223" uniqueCount="868">
   <si>
     <t>Property</t>
   </si>
@@ -2135,6 +2135,606 @@
   <si>
     <t xml:space="preserve">obs-6
 </t>
+  </si>
+  <si>
+    <t>us-core-location</t>
+  </si>
+  <si>
+    <t>http://www.fhir.org/guides/uscdi4-sandbox/StructureDefinition/us-core-location</t>
+  </si>
+  <si>
+    <t>USCoreLocation</t>
+  </si>
+  <si>
+    <t>US Core Location Profile</t>
+  </si>
+  <si>
+    <t>2023-08-06</t>
+  </si>
+  <si>
+    <t>This profile sets minimum expectations for the Location resource for recording, searching, and fetching a "physical place of available services or resources."  It identifies which core elements, extensions, vocabularies, and value sets **SHALL** be present and constrains how the elements are used when using the profile.  It provides the floor for standards development for specific use cases to promote interoperability and adoption through common implementation.</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Location</t>
+  </si>
+  <si>
+    <t>Details and position information for a physical place</t>
+  </si>
+  <si>
+    <t>Location.id</t>
+  </si>
+  <si>
+    <t>Location.meta</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
+    <t>Location.language</t>
+  </si>
+  <si>
+    <t>Location.text</t>
+  </si>
+  <si>
+    <t>Location.contained</t>
+  </si>
+  <si>
+    <t>Location.extension</t>
+  </si>
+  <si>
+    <t>Location.modifierExtension</t>
+  </si>
+  <si>
+    <t>Location.identifier</t>
+  </si>
+  <si>
+    <t>(USCDI Requirement) Unique business identifier for facility or location.</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users.</t>
+  </si>
+  <si>
+    <t>Organization label locations in registries, need to keep track of those.</t>
+  </si>
+  <si>
+    <t>Location.status</t>
+  </si>
+  <si>
+    <t>active | suspended | inactive</t>
+  </si>
+  <si>
+    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
+  </si>
+  <si>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Location.operationalStatus</t>
+  </si>
+  <si>
+    <t>The operational status of the location (typically only for a bed/room)</t>
+  </si>
+  <si>
+    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
+  </si>
+  <si>
+    <t>The operational status if the location (where typically a bed/room).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+  </si>
+  <si>
+    <t>Location.name</t>
+  </si>
+  <si>
+    <t>(USCDI Requirement) Name by which a facility or location is known.</t>
+  </si>
+  <si>
+    <t>Name of the location as used by humans. Does not need to be unique.</t>
+  </si>
+  <si>
+    <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>Location.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the location is known as, or was known as, in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the location is known as, or was known as, in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.</t>
+  </si>
+  <si>
+    <t>Over time locations and organizations go through many changes and can be known by different names.
+For searching knowing previous names that the location was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>Location.description</t>
+  </si>
+  <si>
+    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name</t>
+  </si>
+  <si>
+    <t>Description of the Location, which helps in finding or referencing the place.</t>
+  </si>
+  <si>
+    <t>Humans need additional information to verify a correct location has been identified.</t>
+  </si>
+  <si>
+    <t>Location.mode</t>
+  </si>
+  <si>
+    <t>instance | kind</t>
+  </si>
+  <si>
+    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
+  </si>
+  <si>
+    <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.</t>
+  </si>
+  <si>
+    <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
+  </si>
+  <si>
+    <t>Location.type</t>
+  </si>
+  <si>
+    <t>(USCDI Requirement) Category of service or resource available in a location.</t>
+  </si>
+  <si>
+    <t>Indicates the type of function performed at the location.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>Location.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contact details of the location</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>Location.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>Physical location</t>
+  </si>
+  <si>
+    <t>Physical location.</t>
+  </si>
+  <si>
+    <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.</t>
+  </si>
+  <si>
+    <t>If locations can be visited, we need to keep track of their address.</t>
+  </si>
+  <si>
+    <t>Location.address.id</t>
+  </si>
+  <si>
+    <t>Location.address.extension</t>
+  </si>
+  <si>
+    <t>Location.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>Location.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>Location.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>Location.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>Location.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>Location.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>Location.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Two letter USPS alphabetic codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>Location.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>US Zip Codes</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>Location.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>Location.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>Location.physicalType</t>
+  </si>
+  <si>
+    <t>Physical form of the location</t>
+  </si>
+  <si>
+    <t>Physical form of the location, e.g. building, room, vehicle, road.</t>
+  </si>
+  <si>
+    <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
+  </si>
+  <si>
+    <t>Physical form of the location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+  </si>
+  <si>
+    <t>Location.position</t>
+  </si>
+  <si>
+    <t>The absolute geographic location</t>
+  </si>
+  <si>
+    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
+  </si>
+  <si>
+    <t>For mobile applications and automated route-finding knowing the exact location of the Location is required.</t>
+  </si>
+  <si>
+    <t>Location.position.id</t>
+  </si>
+  <si>
+    <t>Location.position.extension</t>
+  </si>
+  <si>
+    <t>Location.position.modifierExtension</t>
+  </si>
+  <si>
+    <t>Location.position.longitude</t>
+  </si>
+  <si>
+    <t>Longitude with WGS84 datum</t>
+  </si>
+  <si>
+    <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
+  </si>
+  <si>
+    <t>Location.position.latitude</t>
+  </si>
+  <si>
+    <t>Latitude with WGS84 datum</t>
+  </si>
+  <si>
+    <t>Latitude. The value domain and the interpretation are the same as for the text of the latitude element in KML (see notes below).</t>
+  </si>
+  <si>
+    <t>Location.position.altitude</t>
+  </si>
+  <si>
+    <t>Altitude with WGS84 datum</t>
+  </si>
+  <si>
+    <t>Altitude. The value domain and the interpretation are the same as for the text of the altitude element in KML (see notes below).</t>
+  </si>
+  <si>
+    <t>Location.managingOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
+</t>
+  </si>
+  <si>
+    <t>Organization responsible for provisioning and upkeep</t>
+  </si>
+  <si>
+    <t>The organization responsible for the provisioning and upkeep of the location.</t>
+  </si>
+  <si>
+    <t>This can also be used as the part of the organization hierarchy where this location provides services. These services can be defined through the HealthcareService resource.</t>
+  </si>
+  <si>
+    <t>Need to know who manages the location.</t>
+  </si>
+  <si>
+    <t>Location.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Another Location this one is physically a part of</t>
+  </si>
+  <si>
+    <t>Another Location of which this Location is physically a part of.</t>
+  </si>
+  <si>
+    <t>For purposes of location, display and identification, knowing which locations are located within other locations is important.</t>
+  </si>
+  <si>
+    <t>Location.hoursOfOperation</t>
+  </si>
+  <si>
+    <t>What days/times during a week is this location usually open</t>
+  </si>
+  <si>
+    <t>What days/times during a week is this location usually open.</t>
+  </si>
+  <si>
+    <t>This type of information is commonly found published in directories and on websites informing customers when the facility is available.
+Specific services within the location may have their own hours which could be shorter (or longer) than the locations hours.</t>
+  </si>
+  <si>
+    <t>Location.hoursOfOperation.id</t>
+  </si>
+  <si>
+    <t>Location.hoursOfOperation.extension</t>
+  </si>
+  <si>
+    <t>Location.hoursOfOperation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Location.hoursOfOperation.daysOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>Indicates which days of the week are available between the start and end Times.</t>
+  </si>
+  <si>
+    <t>The days of the week.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
+    <t>Location.hoursOfOperation.allDay</t>
+  </si>
+  <si>
+    <t>The Location is open all day</t>
+  </si>
+  <si>
+    <t>The Location is open all day.</t>
+  </si>
+  <si>
+    <t>Location.hoursOfOperation.openingTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>Time that the Location opens</t>
+  </si>
+  <si>
+    <t>Time that the Location opens.</t>
+  </si>
+  <si>
+    <t>Location.hoursOfOperation.closingTime</t>
+  </si>
+  <si>
+    <t>Time that the Location closes</t>
+  </si>
+  <si>
+    <t>Time that the Location closes.</t>
+  </si>
+  <si>
+    <t>Location.availabilityExceptions</t>
+  </si>
+  <si>
+    <t>Description of availability exceptions</t>
+  </si>
+  <si>
+    <t>A description of when the locations opening ours are different to normal, e.g. public holiday availability. Succinctly describing all possible exceptions to normal site availability as detailed in the opening hours Times.</t>
+  </si>
+  <si>
+    <t>Location.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
+</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the location</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the location.</t>
+  </si>
+  <si>
+    <t>Organizations may have different systems at different locations that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
   </si>
 </sst>
 </file>
@@ -2268,7 +2868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2746,6 +3346,162 @@
         <v>36</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2753,7 +3509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK193"/>
+  <dimension ref="A1:AK244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2781,7 +3537,7 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="78.59765625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -23125,6 +23881,5337 @@
         <v>56</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F194" s="2"/>
+      <c r="G194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="O194" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P194" s="2"/>
+      <c r="Q194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R194" s="2"/>
+      <c r="S194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O195" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="P195" s="2"/>
+      <c r="Q195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R195" s="2"/>
+      <c r="S195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F196" s="2"/>
+      <c r="G196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R196" s="2"/>
+      <c r="S196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F197" s="2"/>
+      <c r="G197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O197" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P197" s="2"/>
+      <c r="Q197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R197" s="2"/>
+      <c r="S197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P198" s="2"/>
+      <c r="Q198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R198" s="2"/>
+      <c r="S198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="O199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R199" s="2"/>
+      <c r="S199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F200" s="2"/>
+      <c r="G200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="P200" s="2"/>
+      <c r="Q200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R200" s="2"/>
+      <c r="S200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F201" s="2"/>
+      <c r="G201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N201" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="P201" s="2"/>
+      <c r="Q201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R201" s="2"/>
+      <c r="S201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F202" s="2"/>
+      <c r="G202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O202" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="P202" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="Q202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R202" s="2"/>
+      <c r="S202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F203" s="2"/>
+      <c r="G203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="O203" s="2"/>
+      <c r="P203" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="Q203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R203" s="2"/>
+      <c r="S203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R204" s="2"/>
+      <c r="S204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C205" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F205" s="2"/>
+      <c r="G205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R205" s="2"/>
+      <c r="S205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F206" s="2"/>
+      <c r="G206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="P206" s="2"/>
+      <c r="Q206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R206" s="2"/>
+      <c r="S206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="C207" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F207" s="2"/>
+      <c r="G207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="O207" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="P207" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="Q207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R207" s="2"/>
+      <c r="S207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C208" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F208" s="2"/>
+      <c r="G208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="O208" s="2"/>
+      <c r="P208" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="Q208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R208" s="2"/>
+      <c r="S208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F209" s="2"/>
+      <c r="G209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H209" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K209" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="N209" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="P209" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="Q209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R209" s="2"/>
+      <c r="S209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y209" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z209" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AA209" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="AB209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI209" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ209" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK209" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F210" s="2"/>
+      <c r="G210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="N210" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R210" s="2"/>
+      <c r="S210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Z210" s="2"/>
+      <c r="AA210" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK210" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="C211" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F211" s="2"/>
+      <c r="G211" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R211" s="2"/>
+      <c r="S211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG211" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="AH211" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI211" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ211" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK211" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F212" s="2"/>
+      <c r="G212" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="P212" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="Q212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R212" s="2"/>
+      <c r="S212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG212" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AH212" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI212" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ212" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK212" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F213" s="2"/>
+      <c r="G213" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R213" s="2"/>
+      <c r="S213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="C214" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F214" s="2"/>
+      <c r="G214" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H214" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="P214" s="2"/>
+      <c r="Q214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R214" s="2"/>
+      <c r="S214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF214" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG214" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AH214" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI214" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ214" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK214" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="C215" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F215" s="2"/>
+      <c r="G215" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H215" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J215" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K215" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="P215" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="Q215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R215" s="2"/>
+      <c r="S215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U215" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="V215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y215" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z215" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AA215" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="AB215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="AH215" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI215" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ215" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK215" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="C216" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F216" s="2"/>
+      <c r="G216" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H216" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="N216" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="O216" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="P216" s="2"/>
+      <c r="Q216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R216" s="2"/>
+      <c r="S216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U216" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="V216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y216" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG216" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AH216" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI216" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ216" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK216" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="O217" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="P217" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="Q217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R217" s="2"/>
+      <c r="S217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG217" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="AH217" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI217" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK217" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F218" s="2"/>
+      <c r="G218" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H218" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I218" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R218" s="2"/>
+      <c r="S218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U218" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="V218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG218" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AH218" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI218" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ218" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK218" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="F219" s="2"/>
+      <c r="G219" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R219" s="2"/>
+      <c r="S219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG219" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="AH219" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI219" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK219" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="C220" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H220" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="P220" s="2"/>
+      <c r="Q220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R220" s="2"/>
+      <c r="S220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U220" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="V220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG220" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="AH220" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI220" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ220" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK220" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R221" s="2"/>
+      <c r="S221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y221" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Z221" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AA221" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AB221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG221" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="AH221" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI221" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ221" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK221" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="C222" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="F222" s="2"/>
+      <c r="G222" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R222" s="2"/>
+      <c r="S222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK222" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="C223" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F223" s="2"/>
+      <c r="G223" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="P223" s="2"/>
+      <c r="Q223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R223" s="2"/>
+      <c r="S223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="C224" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F224" s="2"/>
+      <c r="G224" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="O224" s="2"/>
+      <c r="P224" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="Q224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R224" s="2"/>
+      <c r="S224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK224" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="O225" s="2"/>
+      <c r="P225" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="Q225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R225" s="2"/>
+      <c r="S225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="G226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="O226" s="2"/>
+      <c r="P226" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="Q226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R226" s="2"/>
+      <c r="S226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R227" s="2"/>
+      <c r="S227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F228" s="2"/>
+      <c r="G228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="P228" s="2"/>
+      <c r="Q228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R228" s="2"/>
+      <c r="S228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="F229" s="2"/>
+      <c r="G229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="P229" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="Q229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R229" s="2"/>
+      <c r="S229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R230" s="2"/>
+      <c r="S230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="N231" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R231" s="2"/>
+      <c r="S231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK231" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R232" s="2"/>
+      <c r="S232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG232" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AH232" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI232" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ232" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK232" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="D233" s="2"/>
+      <c r="E233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F233" s="2"/>
+      <c r="G233" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="P233" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="Q233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R233" s="2"/>
+      <c r="S233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG233" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="Q234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R234" s="2"/>
+      <c r="S234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="P235" s="2"/>
+      <c r="Q235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R235" s="2"/>
+      <c r="S235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG235" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="AH235" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI235" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ235" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK235" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R236" s="2"/>
+      <c r="S236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK236" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O237" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="P237" s="2"/>
+      <c r="Q237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R237" s="2"/>
+      <c r="S237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK237" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J238" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L238" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O238" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="P238" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="Q238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R238" s="2"/>
+      <c r="S238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG238" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AH238" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI238" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ238" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK238" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="N239" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R239" s="2"/>
+      <c r="S239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y239" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z239" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="AA239" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG239" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AH239" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI239" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK239" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F240" s="2"/>
+      <c r="G240" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R240" s="2"/>
+      <c r="S240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG240" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="AH240" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI240" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK240" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F241" s="2"/>
+      <c r="G241" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R241" s="2"/>
+      <c r="S241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F242" s="2"/>
+      <c r="G242" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="N242" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R242" s="2"/>
+      <c r="S242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG242" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="AH242" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI242" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK242" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R243" s="2"/>
+      <c r="S243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK243" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F244" s="2"/>
+      <c r="G244" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H244" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="O244" s="2"/>
+      <c r="P244" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="Q244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R244" s="2"/>
+      <c r="S244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG244" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="AH244" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI244" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK244" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -3218,10 +3218,10 @@
     <t>Dosage.maxDosePerLifetime</t>
   </si>
   <si>
-    <t>care-experience-preference</t>
-  </si>
-  <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/StructureDefinition/care-experience-preference</t>
+    <t>us-core-care-experience-preference</t>
+  </si>
+  <si>
+    <t>http://www.fhir.org/guides/uscdi4-sandbox/StructureDefinition/us-core-care-experience-preference</t>
   </si>
   <si>
     <t>USCoreCareExperiencePreferenceProfile</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -2617,7 +2617,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) US Core Race Extension</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Race Extension</t>
   </si>
   <si>
     <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The race codes used to represent these concepts are based upon the [CDC Race and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 921 reference race.  The race concepts are grouped by and pre-mapped to the 5 OMB race categories:
@@ -2638,7 +2638,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) US Core ethnicity Extension</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: US Core ethnicity Extension</t>
   </si>
   <si>
     <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The ethnicity codes used to represent these concepts are based upon the [CDC ethnicity and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 43 reference ethnicity.  The ethnicity concepts are grouped by and pre-mapped to the 2 OMB ethnicity categories: - Hispanic or Latino - Not Hispanic or Latino.</t>
@@ -2654,7 +2654,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) Tribal Affiliation Extension</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Tribal Affiliation Extension</t>
   </si>
   <si>
     <t>A tribe or band with which a person associates whether or not they are an enrolled member.</t>
@@ -2689,7 +2689,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) Sex Extension</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Sex Extension</t>
   </si>
   <si>
     <t>The US Core Sex Extension is used to reflect the documentation of a person's sex. It aligns with the C-CDA Sex Observation (LOINC 46098-0).</t>
@@ -2705,7 +2705,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) The individual's gender identity</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: The individual's gender identity</t>
   </si>
   <si>
     <t>An individual's personal sense of being a man, woman, boy, girl, nonbinary, or something else.</t>
@@ -2906,7 +2906,7 @@
     <t>Patient.name.use</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) usual | official | temp | nickname | anonymous | old | maiden</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: usual | official | temp | nickname | anonymous | old | maiden</t>
   </si>
   <si>
     <t>Identifies the purpose for this name.</t>
@@ -3011,7 +3011,7 @@
     <t>Patient.name.period</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) Time period when name was/is in use</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Time period when name was/is in use</t>
   </si>
   <si>
     <t>Indicates the period of time when this name was valid for the named person.</t>
@@ -3026,7 +3026,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) A contact detail for the individual</t>
+    <t>A contact detail for the individual</t>
   </si>
   <si>
     <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
@@ -3180,7 +3180,7 @@
 dateTime</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) Indicates if the individual is deceased or not</t>
+    <t>Indicates if the individual is deceased or not</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not.</t>
@@ -3216,7 +3216,7 @@
     <t>Patient.address.use</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) home | work | temp | old | billing - purpose of this address</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: home | work | temp | old | billing - purpose of this address</t>
   </si>
   <si>
     <t>Patient.address.type</t>
@@ -3253,7 +3253,7 @@
     <t>Patient.address.period</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) Time period when address was/is in use</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Time period when address was/is in use</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -3440,7 +3440,7 @@
     <t>Patient.communication</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: ❗(𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜) A language which may be used to communicate with the patient about his or her health</t>
+    <t>A language which may be used to communicate with the patient about his or her health</t>
   </si>
   <si>
     <t>A language which may be used to communicate with the patient about his or her health.</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>2023-10-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1643,7 +1643,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Profiles or other resource the observation is made from</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Profiles or other resource the observation is made from</t>
   </si>
   <si>
     <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>
@@ -2617,7 +2617,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Race Extension</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Race Extension</t>
   </si>
   <si>
     <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The race codes used to represent these concepts are based upon the [CDC Race and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 921 reference race.  The race concepts are grouped by and pre-mapped to the 5 OMB race categories:
@@ -2638,7 +2638,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: US Core ethnicity Extension</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: US Core ethnicity Extension</t>
   </si>
   <si>
     <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The ethnicity codes used to represent these concepts are based upon the [CDC ethnicity and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 43 reference ethnicity.  The ethnicity concepts are grouped by and pre-mapped to the 2 OMB ethnicity categories: - Hispanic or Latino - Not Hispanic or Latino.</t>
@@ -2654,7 +2654,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Tribal Affiliation Extension</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Tribal Affiliation Extension</t>
   </si>
   <si>
     <t>A tribe or band with which a person associates whether or not they are an enrolled member.</t>
@@ -2689,7 +2689,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Sex Extension</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Sex Extension</t>
   </si>
   <si>
     <t>The US Core Sex Extension is used to reflect the documentation of a person's sex. It aligns with the C-CDA Sex Observation (LOINC 46098-0).</t>
@@ -2705,7 +2705,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: The individual's gender identity</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: The individual's gender identity</t>
   </si>
   <si>
     <t>An individual's personal sense of being a man, woman, boy, girl, nonbinary, or something else.</t>
@@ -2906,7 +2906,7 @@
     <t>Patient.name.use</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: usual | official | temp | nickname | anonymous | old | maiden</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: usual | official | temp | nickname | anonymous | old | maiden</t>
   </si>
   <si>
     <t>Identifies the purpose for this name.</t>
@@ -2999,7 +2999,7 @@
     <t>Patient.name.suffix</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Parts that come after the name</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Parts that come after the name</t>
   </si>
   <si>
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
@@ -3011,7 +3011,7 @@
     <t>Patient.name.period</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Time period when name was/is in use</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Time period when name was/is in use</t>
   </si>
   <si>
     <t>Indicates the period of time when this name was valid for the named person.</t>
@@ -3216,7 +3216,7 @@
     <t>Patient.address.use</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: home | work | temp | old | billing - purpose of this address</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: home | work | temp | old | billing - purpose of this address</t>
   </si>
   <si>
     <t>Patient.address.type</t>
@@ -3253,7 +3253,7 @@
     <t>Patient.address.period</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Time period when address was/is in use</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Time period when address was/is in use</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -3814,7 +3814,7 @@
     <t>Specimen.collection.bodySite</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Specimen Source Site</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Specimen Source Site</t>
   </si>
   <si>
     <t>Anatomical location from which the specimen was collected (if subject is a patient). This is the target site.  This element is not used for environmental specimens.</t>
@@ -4003,7 +4003,7 @@
     <t>Specimen.condition</t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: Specimen condition acceptability</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Specimen condition acceptability</t>
   </si>
   <si>
     <t>A mode or state of being that describes the nature of the specimen.</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -2465,7 +2465,7 @@
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
-    <t>137 Nowhere Street</t>
+    <t>49 MEADOW ST</t>
   </si>
   <si>
     <t>Address.line</t>
